--- a/tsukamoto.xlsx
+++ b/tsukamoto.xlsx
@@ -550,7 +550,7 @@
         <v>700</v>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>53.33333333333334</v>
       </c>
     </row>
     <row r="9">
